--- a/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,174 +436,159 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distance_km</t>
+          <t>cand_gender</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>match_score</t>
+          <t>cand_age_bucket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_rank</t>
+          <t>cand_domicile_province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cand_gender</t>
+          <t>cand_domicile_region</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cand_age_bucket</t>
+          <t>job_contract_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_province</t>
+          <t>job_work_province</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_region</t>
+          <t>Spagnolo</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>job_contract_type</t>
+          <t>Ebraico</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>job_work_province</t>
+          <t>Greco</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Catalano</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rumeno</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Svedese</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Finlandese</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Polacco</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Norvegese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Macedone</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Pakistano - Urdu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Tedesco</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Spagnolo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Greco</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Polacco</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Sloveno</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Bulgaro</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Persiano</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Italiano</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Macedone</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Sloveno</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Catalano</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>Serbo</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Norvegese</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10664.496646867</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13429.19356335</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9501</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -612,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9501</v>
+        <v>6852</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -621,58 +606,58 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6852</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>15</v>
-      </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -681,45 +666,36 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1409.827733158</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>426.6377107</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>424</v>
+        <v>1096</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1096</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -731,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -746,105 +722,96 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3480.807214035</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1130.169756110001</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2835</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2835</v>
+        <v>1379</v>
       </c>
       <c r="G4" t="n">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1379</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -856,48 +823,39 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5872.514622430001</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>9061.81420452</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8393</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -906,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8393</v>
+        <v>4460</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -915,87 +873,78 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3868.738882589</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>6483.82706233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3281</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1004,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3281</v>
+        <v>11339</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1013,105 +962,96 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11339</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>16</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>826.666414562</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1693.77161018</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>914</v>
+        <v>2527</v>
       </c>
       <c r="G7" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2527</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1135,81 +1075,72 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>377.3085831799998</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>314.2872714899999</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1463</v>
+        <v>3986</v>
       </c>
       <c r="G8" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3986</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1233,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1248,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1270,26 +1201,17 @@
       </c>
       <c r="AC8" t="n">
         <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2347.762371252</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>13515.89705665</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7216</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1298,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7216</v>
+        <v>3925</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1307,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3925</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1319,23 +1241,23 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
@@ -1352,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,48 +1289,39 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11221.834550901</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>18746.4739919</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10188</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7563</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10188</v>
+        <v>4160</v>
       </c>
       <c r="G10" t="n">
-        <v>7563</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4160</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1417,23 +1330,23 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
@@ -1450,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1465,27 +1378,18 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1895.335162418999</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>8148.66834455</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16687</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1494,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16687</v>
+        <v>19652</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1503,58 +1407,58 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19652</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1563,27 +1467,18 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2114.061796712</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1466.84336114</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2597</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1592,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2597</v>
+        <v>7745</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1601,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7745</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1613,40 +1508,40 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>5</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1655,33 +1550,24 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3314.389929875</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>7323.654216680001</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5115</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1690,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5115</v>
+        <v>10174</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1699,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10174</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1711,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1726,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1744,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1759,45 +1645,36 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14750.434659885</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>13367.05422015</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4770</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4770</v>
+        <v>6234</v>
       </c>
       <c r="G14" t="n">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6234</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1812,37 +1689,37 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1857,27 +1734,18 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6950.831240491999</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>2427.61421388</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1886,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9420</v>
+        <v>22668</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1895,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22668</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1907,132 +1775,123 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1</v>
-      </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3000.849470161</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>347.99440772</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1709</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1709</v>
+        <v>4865</v>
       </c>
       <c r="G16" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4865</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2054,113 +1913,6 @@
       </c>
       <c r="AC16" t="n">
         <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1184.595051873</v>
-      </c>
-      <c r="B17" t="n">
-        <v>633.7590142099999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1516</v>
-      </c>
-      <c r="G17" t="n">
-        <v>960</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3861</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,117 +466,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Norvegese</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Catalano</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Macedone</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Persiano</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pakistano - Urdu</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Svedese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Polacco</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tedesco</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Finlandese</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Ebraico</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Spagnolo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Serbo</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Greco</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Catalano</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaro</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Polacco</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Norvegese</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Italiano</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Macedone</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Pakistano - Urdu</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Tedesco</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Sloveno</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Bulgaro</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Persiano</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
         </is>
       </c>
     </row>
@@ -588,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9501</v>
+        <v>8171</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -597,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6852</v>
+        <v>8552</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -621,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -651,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -663,9 +658,6 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>424</v>
+        <v>1174</v>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1096</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -695,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -725,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -734,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -749,12 +741,9 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -766,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2835</v>
+        <v>1515</v>
       </c>
       <c r="D4" t="n">
-        <v>781</v>
+        <v>490</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1379</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -787,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -805,25 +794,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -835,15 +824,12 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -855,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8393</v>
+        <v>3252</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -864,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -888,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -918,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -927,12 +913,9 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -944,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3281</v>
+        <v>3524</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -953,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11339</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -977,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1007,21 +990,18 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="D7" t="n">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2527</v>
+        <v>887</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1051,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1072,45 +1052,42 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1463</v>
+        <v>1388</v>
       </c>
       <c r="D8" t="n">
-        <v>361</v>
+        <v>529</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3986</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1164,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1179,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1191,15 +1168,12 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1211,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7216</v>
+        <v>6025</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1220,20 +1194,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3925</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1241,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1250,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1286,9 +1260,6 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1300,84 +1271,81 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>10188</v>
+        <v>13571</v>
       </c>
       <c r="D10" t="n">
-        <v>7563</v>
+        <v>6242</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4160</v>
+        <v>2034</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1389,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16687</v>
+        <v>10500</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1398,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>19652</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1422,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1452,21 +1420,18 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1478,37 +1443,37 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2597</v>
+        <v>1849</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7745</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1517,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1553,9 +1518,6 @@
         <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1567,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5115</v>
+        <v>7021</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1576,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10174</v>
+        <v>4062</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1585,56 +1547,56 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -1642,9 +1604,6 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,28 +1615,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4770</v>
+        <v>3201</v>
       </c>
       <c r="D14" t="n">
-        <v>1828</v>
+        <v>1240</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6234</v>
+        <v>5758</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1689,25 +1648,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1731,9 +1690,6 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9420</v>
+        <v>5296</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1754,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22668</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1766,19 +1722,19 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1790,39 +1746,36 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1834,25 +1787,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1709</v>
+        <v>1411</v>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>712</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4865</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,57 +1814,140 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D17" t="n">
+        <v>588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_gender_reverse.xlsx
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8171</v>
+        <v>39.19</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8552</v>
+        <v>31.1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0.04</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1174</v>
+        <v>52.09</v>
       </c>
       <c r="D3" t="n">
-        <v>262</v>
+        <v>34.2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1515</v>
+        <v>33.83</v>
       </c>
       <c r="D4" t="n">
-        <v>490</v>
+        <v>15.18</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>0.63</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3252</v>
+        <v>28.8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3524</v>
+        <v>22.84</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>0.05</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>926</v>
+        <v>61.22</v>
       </c>
       <c r="D7" t="n">
-        <v>370</v>
+        <v>48.83</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>887</v>
+        <v>31.92</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1388</v>
+        <v>32.91</v>
       </c>
       <c r="D8" t="n">
-        <v>529</v>
+        <v>40.98</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6025</v>
+        <v>28.98</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1271,28 +1271,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13571</v>
+        <v>55.62</v>
       </c>
       <c r="D10" t="n">
-        <v>6242</v>
+        <v>31.28</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2034</v>
+        <v>7.58</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0.04</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>10500</v>
+        <v>34.77</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1849</v>
+        <v>23.45</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7021</v>
+        <v>31.32</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4062</v>
+        <v>16.26</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3201</v>
+        <v>31.12</v>
       </c>
       <c r="D14" t="n">
-        <v>1240</v>
+        <v>13.23</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5758</v>
+        <v>37.57</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>5296</v>
+        <v>32.58</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1411</v>
+        <v>38.58</v>
       </c>
       <c r="D16" t="n">
-        <v>712</v>
+        <v>25.94</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>0.18</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>0.11</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1761</v>
+        <v>37.59</v>
       </c>
       <c r="D17" t="n">
-        <v>588</v>
+        <v>39.49</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>0.63</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
